--- a/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
+++ b/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5503EA7-7722-4DF6-849C-912011E134C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF8121-5B7D-BD41-B53F-4594B65E0F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-20" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>ID indicador</t>
   </si>
@@ -102,14 +102,123 @@
     <t>M3.2</t>
   </si>
   <si>
-    <t>M3.3</t>
+    <t>Aumentar el porcentaje del mercado que tenemos</t>
+  </si>
+  <si>
+    <t>Generar un ambiente dentro de nuestros puntos de venta apropiados para la venta y para la felicidad de los empleados</t>
+  </si>
+  <si>
+    <t>Tener 30 puntos de venta</t>
+  </si>
+  <si>
+    <t>Aumentar el porcentaje de ventas</t>
+  </si>
+  <si>
+    <t>M1.4</t>
+  </si>
+  <si>
+    <t>M1.5</t>
+  </si>
+  <si>
+    <t>Actuar con base en la demanda</t>
+  </si>
+  <si>
+    <t>Aumentar número de venta de puntos de venta nuevos</t>
+  </si>
+  <si>
+    <t>Aumentar nuestra ocupación de mercado</t>
+  </si>
+  <si>
+    <t>Disminuir el porcentaje de rotación de nuestros empleados</t>
+  </si>
+  <si>
+    <t>Aumentar el porcentaje de retención de clientes</t>
+  </si>
+  <si>
+    <t>Aumentar el porcentaje de transición de prospecto a cliente</t>
+  </si>
+  <si>
+    <t>M2.4</t>
+  </si>
+  <si>
+    <t>Tener certeza de la cantidad de monturas por referencia que tenemos</t>
+  </si>
+  <si>
+    <t>Aumentar el número de artículos vendidos por vendedor</t>
+  </si>
+  <si>
+    <t>OP-01</t>
+  </si>
+  <si>
+    <t>OP-02</t>
+  </si>
+  <si>
+    <t>OP-04</t>
+  </si>
+  <si>
+    <t>OP-07</t>
+  </si>
+  <si>
+    <t>OP-06</t>
+  </si>
+  <si>
+    <t>OP-03</t>
+  </si>
+  <si>
+    <t>OP-05</t>
+  </si>
+  <si>
+    <t>OP-08</t>
+  </si>
+  <si>
+    <t>Aumentar el porcentaje de aprobación de servicio y producto</t>
+  </si>
+  <si>
+    <t>OP-09</t>
+  </si>
+  <si>
+    <t>OP-10</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>&lt;5%</t>
+  </si>
+  <si>
+    <t>15% por canal</t>
+  </si>
+  <si>
+    <t>0% por canal</t>
+  </si>
+  <si>
+    <t>7%&gt; en toda ciudad a la que llegue la óptica</t>
+  </si>
+  <si>
+    <t>0,3% en Bogotá</t>
+  </si>
+  <si>
+    <t>500&gt;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Dependiente de la demanda</t>
+  </si>
+  <si>
+    <t>Indeterminado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +238,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,10 +357,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,12 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,15 +387,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,71 +752,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -659,314 +826,317 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="23">
+        <v>786995000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="D14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
+      <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="D17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="D18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="13">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
+++ b/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DF8121-5B7D-BD41-B53F-4594B65E0F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D307-D774-4146-837D-A37ACFC6FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>ID indicador</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Generar un ambiente dentro de nuestros puntos de venta apropiados para la venta y para la felicidad de los empleados</t>
   </si>
   <si>
-    <t>Tener 30 puntos de venta</t>
-  </si>
-  <si>
     <t>Aumentar el porcentaje de ventas</t>
   </si>
   <si>
@@ -192,22 +189,31 @@
     <t>0% por canal</t>
   </si>
   <si>
-    <t>7%&gt; en toda ciudad a la que llegue la óptica</t>
-  </si>
-  <si>
     <t>0,3% en Bogotá</t>
   </si>
   <si>
-    <t>500&gt;</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Dependiente de la demanda</t>
   </si>
   <si>
     <t>Indeterminado</t>
+  </si>
+  <si>
+    <t>M3.3</t>
+  </si>
+  <si>
+    <t>OP-11</t>
+  </si>
+  <si>
+    <t>Aumentar el número de artículos vendidos por canales digitales</t>
+  </si>
+  <si>
+    <t>&gt;500</t>
+  </si>
+  <si>
+    <t>&gt;7% en toda ciudad a la que llegue la óptica</t>
+  </si>
+  <si>
+    <t>Aumentar número de puntos de venta</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -362,7 +368,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,6 +384,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +418,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,44 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G19" sqref="D19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -787,32 +787,32 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -826,308 +826,283 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>24</v>
+      <c r="D8" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <v>30</v>
       </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>25</v>
+      <c r="D9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="23">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10">
         <v>786995000</v>
       </c>
+      <c r="G9" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>32</v>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="25">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>53</v>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>31</v>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="24">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11">
         <v>0.12</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>32</v>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="25">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="12">
         <v>0.3</v>
       </c>
-      <c r="G14" s="25">
-        <v>0.04</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>33</v>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="25">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G16" s="12">
         <v>0.6</v>
       </c>
-      <c r="G16" s="25">
-        <v>7.0000000000000007E-2</v>
-      </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>28</v>
+      <c r="B17" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>35</v>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>36</v>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="4">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4">
         <v>4000</v>
       </c>
-      <c r="G18" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>

--- a/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
+++ b/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B7D307-D774-4146-837D-A37ACFC6FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9AD64-E04A-0D48-83B3-16492A76B2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -409,6 +409,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,18 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -755,7 +755,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G19" sqref="D19:G19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -787,32 +787,32 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="25" t="s">
         <v>1</v>
       </c>
     </row>
@@ -829,15 +829,15 @@
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -853,12 +853,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
@@ -876,8 +876,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
@@ -895,8 +895,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
@@ -914,8 +914,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
@@ -933,10 +933,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -956,8 +956,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
@@ -975,8 +975,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
@@ -994,8 +994,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1013,10 +1013,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1036,8 +1036,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1055,8 +1055,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1097,12 +1097,6 @@
     <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
@@ -1110,6 +1104,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
+++ b/HT-6/Optica BAC-20-Clasificación de objetivos y metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9AD64-E04A-0D48-83B3-16492A76B2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29830588-2586-CD48-AF5C-F8F13B981FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>ID indicador</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>OP-10</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>&lt;5%</t>
@@ -220,7 +217,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -271,7 +269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,10 +361,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -408,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,8 +436,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -763,7 +763,8 @@
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -844,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
@@ -869,10 +870,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="10">
-        <v>786995000</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>47</v>
+        <v>897000000</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2000000000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.15">
@@ -910,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.15">
@@ -926,10 +927,10 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -952,7 +953,7 @@
         <v>0.12</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.15">
@@ -987,10 +988,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.15">
@@ -1029,10 +1030,10 @@
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.15">
@@ -1058,13 +1059,13 @@
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
